--- a/public/static/Homebooks.xlsx
+++ b/public/static/Homebooks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balqe\Desktop\homebooks\public\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2C1A22-5CD7-4F60-8FF5-6D2FF9F4F906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D97F40-222E-4152-BE4F-E04776B6E330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="308">
   <si>
     <t>ديني</t>
   </si>
@@ -935,6 +935,15 @@
   </si>
   <si>
     <t>https://i.postimg.cc/MZskCBZ7/watastameralmaraka2.jpg</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>https://cdn.salla.sa/OId9DCwhQgcuQN5xErcxO5zfJhTzvM5YioxOrtFp.jpg</t>
+  </si>
+  <si>
+    <t>https://s.turbifycdn.com/aah/yhst-141393827066280/fusul-islamiyah-141.gif</t>
   </si>
 </sst>
 </file>
@@ -1290,9 +1299,9 @@
   </sheetPr>
   <dimension ref="A1:T999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1665,7 +1674,9 @@
       <c r="G11" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2107,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2141,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -6637,7 +6648,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6659,7 +6670,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6681,7 +6692,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6703,7 +6714,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6725,7 +6736,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6747,7 +6758,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6769,7 +6780,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6791,7 +6802,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6813,7 +6824,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6835,7 +6846,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6857,7 +6868,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6879,7 +6890,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6901,7 +6912,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6923,7 +6934,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6945,7 +6956,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6967,7 +6978,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6989,7 +7000,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7011,7 +7022,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7033,7 +7044,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7055,7 +7066,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7077,7 +7088,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7099,7 +7110,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7121,7 +7132,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7143,7 +7154,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7165,7 +7176,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7187,7 +7198,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7209,7 +7220,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7231,7 +7242,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7253,7 +7264,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7275,7 +7286,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7297,7 +7308,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7319,7 +7330,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7341,7 +7352,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7363,7 +7374,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7385,7 +7396,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7407,7 +7418,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7429,7 +7440,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7451,7 +7462,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7473,7 +7484,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7495,7 +7506,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7517,7 +7528,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7539,7 +7550,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7561,7 +7572,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7583,7 +7594,7 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7605,7 +7616,7 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7627,7 +7638,7 @@
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7649,7 +7660,7 @@
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7671,7 +7682,7 @@
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7693,7 +7704,7 @@
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7715,7 +7726,7 @@
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7737,7 +7748,7 @@
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7759,7 +7770,7 @@
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7781,7 +7792,7 @@
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7803,7 +7814,7 @@
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7825,7 +7836,7 @@
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7847,7 +7858,7 @@
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7869,7 +7880,7 @@
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7891,7 +7902,7 @@
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7913,7 +7924,7 @@
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7935,7 +7946,7 @@
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7957,7 +7968,7 @@
       <c r="S217" s="1"/>
       <c r="T217" s="1"/>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7979,7 +7990,7 @@
       <c r="S218" s="1"/>
       <c r="T218" s="1"/>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8001,7 +8012,7 @@
       <c r="S219" s="1"/>
       <c r="T219" s="1"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8023,7 +8034,7 @@
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8045,7 +8056,7 @@
       <c r="S221" s="1"/>
       <c r="T221" s="1"/>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8067,7 +8078,7 @@
       <c r="S222" s="1"/>
       <c r="T222" s="1"/>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8089,7 +8100,7 @@
       <c r="S223" s="1"/>
       <c r="T223" s="1"/>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8111,7 +8122,7 @@
       <c r="S224" s="1"/>
       <c r="T224" s="1"/>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8133,7 +8144,7 @@
       <c r="S225" s="1"/>
       <c r="T225" s="1"/>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8155,7 +8166,7 @@
       <c r="S226" s="1"/>
       <c r="T226" s="1"/>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8177,7 +8188,7 @@
       <c r="S227" s="1"/>
       <c r="T227" s="1"/>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8199,7 +8210,7 @@
       <c r="S228" s="1"/>
       <c r="T228" s="1"/>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8221,7 +8232,7 @@
       <c r="S229" s="1"/>
       <c r="T229" s="1"/>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8243,7 +8254,7 @@
       <c r="S230" s="1"/>
       <c r="T230" s="1"/>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8265,7 +8276,7 @@
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8287,7 +8298,7 @@
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8309,7 +8320,7 @@
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8331,7 +8342,7 @@
       <c r="S234" s="1"/>
       <c r="T234" s="1"/>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8353,7 +8364,7 @@
       <c r="S235" s="1"/>
       <c r="T235" s="1"/>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8375,7 +8386,7 @@
       <c r="S236" s="1"/>
       <c r="T236" s="1"/>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8397,7 +8408,7 @@
       <c r="S237" s="1"/>
       <c r="T237" s="1"/>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8419,7 +8430,7 @@
       <c r="S238" s="1"/>
       <c r="T238" s="1"/>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8441,7 +8452,7 @@
       <c r="S239" s="1"/>
       <c r="T239" s="1"/>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8463,7 +8474,7 @@
       <c r="S240" s="1"/>
       <c r="T240" s="1"/>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8485,7 +8496,7 @@
       <c r="S241" s="1"/>
       <c r="T241" s="1"/>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8507,7 +8518,7 @@
       <c r="S242" s="1"/>
       <c r="T242" s="1"/>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8529,7 +8540,7 @@
       <c r="S243" s="1"/>
       <c r="T243" s="1"/>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8551,7 +8562,7 @@
       <c r="S244" s="1"/>
       <c r="T244" s="1"/>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8573,7 +8584,7 @@
       <c r="S245" s="1"/>
       <c r="T245" s="1"/>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8595,7 +8606,7 @@
       <c r="S246" s="1"/>
       <c r="T246" s="1"/>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8617,7 +8628,7 @@
       <c r="S247" s="1"/>
       <c r="T247" s="1"/>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8639,7 +8650,7 @@
       <c r="S248" s="1"/>
       <c r="T248" s="1"/>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8661,7 +8672,7 @@
       <c r="S249" s="1"/>
       <c r="T249" s="1"/>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8683,7 +8694,7 @@
       <c r="S250" s="1"/>
       <c r="T250" s="1"/>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8705,7 +8716,7 @@
       <c r="S251" s="1"/>
       <c r="T251" s="1"/>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8727,7 +8738,7 @@
       <c r="S252" s="1"/>
       <c r="T252" s="1"/>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8749,7 +8760,7 @@
       <c r="S253" s="1"/>
       <c r="T253" s="1"/>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8771,7 +8782,7 @@
       <c r="S254" s="1"/>
       <c r="T254" s="1"/>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8793,7 +8804,7 @@
       <c r="S255" s="1"/>
       <c r="T255" s="1"/>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8815,7 +8826,7 @@
       <c r="S256" s="1"/>
       <c r="T256" s="1"/>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8837,7 +8848,7 @@
       <c r="S257" s="1"/>
       <c r="T257" s="1"/>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8859,7 +8870,7 @@
       <c r="S258" s="1"/>
       <c r="T258" s="1"/>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8881,7 +8892,7 @@
       <c r="S259" s="1"/>
       <c r="T259" s="1"/>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8903,7 +8914,7 @@
       <c r="S260" s="1"/>
       <c r="T260" s="1"/>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8925,7 +8936,7 @@
       <c r="S261" s="1"/>
       <c r="T261" s="1"/>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8947,7 +8958,7 @@
       <c r="S262" s="1"/>
       <c r="T262" s="1"/>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8969,7 +8980,7 @@
       <c r="S263" s="1"/>
       <c r="T263" s="1"/>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8991,7 +9002,7 @@
       <c r="S264" s="1"/>
       <c r="T264" s="1"/>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -9013,7 +9024,7 @@
       <c r="S265" s="1"/>
       <c r="T265" s="1"/>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -9035,7 +9046,7 @@
       <c r="S266" s="1"/>
       <c r="T266" s="1"/>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -9057,7 +9068,7 @@
       <c r="S267" s="1"/>
       <c r="T267" s="1"/>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -9079,7 +9090,7 @@
       <c r="S268" s="1"/>
       <c r="T268" s="1"/>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -9101,7 +9112,7 @@
       <c r="S269" s="1"/>
       <c r="T269" s="1"/>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9123,7 +9134,7 @@
       <c r="S270" s="1"/>
       <c r="T270" s="1"/>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9145,7 +9156,7 @@
       <c r="S271" s="1"/>
       <c r="T271" s="1"/>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9167,7 +9178,7 @@
       <c r="S272" s="1"/>
       <c r="T272" s="1"/>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9189,7 +9200,7 @@
       <c r="S273" s="1"/>
       <c r="T273" s="1"/>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9211,7 +9222,7 @@
       <c r="S274" s="1"/>
       <c r="T274" s="1"/>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9233,7 +9244,7 @@
       <c r="S275" s="1"/>
       <c r="T275" s="1"/>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9255,7 +9266,7 @@
       <c r="S276" s="1"/>
       <c r="T276" s="1"/>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9277,7 +9288,7 @@
       <c r="S277" s="1"/>
       <c r="T277" s="1"/>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9299,7 +9310,7 @@
       <c r="S278" s="1"/>
       <c r="T278" s="1"/>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9321,7 +9332,7 @@
       <c r="S279" s="1"/>
       <c r="T279" s="1"/>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9343,7 +9354,7 @@
       <c r="S280" s="1"/>
       <c r="T280" s="1"/>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9365,7 +9376,7 @@
       <c r="S281" s="1"/>
       <c r="T281" s="1"/>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9387,7 +9398,7 @@
       <c r="S282" s="1"/>
       <c r="T282" s="1"/>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9409,7 +9420,7 @@
       <c r="S283" s="1"/>
       <c r="T283" s="1"/>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9431,7 +9442,7 @@
       <c r="S284" s="1"/>
       <c r="T284" s="1"/>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9453,7 +9464,7 @@
       <c r="S285" s="1"/>
       <c r="T285" s="1"/>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9475,7 +9486,7 @@
       <c r="S286" s="1"/>
       <c r="T286" s="1"/>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9497,7 +9508,7 @@
       <c r="S287" s="1"/>
       <c r="T287" s="1"/>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9519,7 +9530,7 @@
       <c r="S288" s="1"/>
       <c r="T288" s="1"/>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9541,7 +9552,7 @@
       <c r="S289" s="1"/>
       <c r="T289" s="1"/>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9563,7 +9574,7 @@
       <c r="S290" s="1"/>
       <c r="T290" s="1"/>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9585,7 +9596,7 @@
       <c r="S291" s="1"/>
       <c r="T291" s="1"/>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9607,7 +9618,7 @@
       <c r="S292" s="1"/>
       <c r="T292" s="1"/>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9629,7 +9640,7 @@
       <c r="S293" s="1"/>
       <c r="T293" s="1"/>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9651,7 +9662,7 @@
       <c r="S294" s="1"/>
       <c r="T294" s="1"/>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9673,7 +9684,7 @@
       <c r="S295" s="1"/>
       <c r="T295" s="1"/>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9695,7 +9706,7 @@
       <c r="S296" s="1"/>
       <c r="T296" s="1"/>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9717,7 +9728,7 @@
       <c r="S297" s="1"/>
       <c r="T297" s="1"/>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9739,7 +9750,7 @@
       <c r="S298" s="1"/>
       <c r="T298" s="1"/>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9761,7 +9772,7 @@
       <c r="S299" s="1"/>
       <c r="T299" s="1"/>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9783,7 +9794,7 @@
       <c r="S300" s="1"/>
       <c r="T300" s="1"/>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9805,7 +9816,7 @@
       <c r="S301" s="1"/>
       <c r="T301" s="1"/>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9827,7 +9838,7 @@
       <c r="S302" s="1"/>
       <c r="T302" s="1"/>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9849,7 +9860,7 @@
       <c r="S303" s="1"/>
       <c r="T303" s="1"/>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9871,7 +9882,7 @@
       <c r="S304" s="1"/>
       <c r="T304" s="1"/>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9893,7 +9904,7 @@
       <c r="S305" s="1"/>
       <c r="T305" s="1"/>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9915,7 +9926,7 @@
       <c r="S306" s="1"/>
       <c r="T306" s="1"/>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9937,7 +9948,7 @@
       <c r="S307" s="1"/>
       <c r="T307" s="1"/>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9959,7 +9970,7 @@
       <c r="S308" s="1"/>
       <c r="T308" s="1"/>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9981,7 +9992,7 @@
       <c r="S309" s="1"/>
       <c r="T309" s="1"/>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -10003,7 +10014,7 @@
       <c r="S310" s="1"/>
       <c r="T310" s="1"/>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10025,7 +10036,7 @@
       <c r="S311" s="1"/>
       <c r="T311" s="1"/>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10047,7 +10058,7 @@
       <c r="S312" s="1"/>
       <c r="T312" s="1"/>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10069,7 +10080,7 @@
       <c r="S313" s="1"/>
       <c r="T313" s="1"/>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10091,7 +10102,7 @@
       <c r="S314" s="1"/>
       <c r="T314" s="1"/>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10113,7 +10124,7 @@
       <c r="S315" s="1"/>
       <c r="T315" s="1"/>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10135,7 +10146,7 @@
       <c r="S316" s="1"/>
       <c r="T316" s="1"/>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10157,7 +10168,7 @@
       <c r="S317" s="1"/>
       <c r="T317" s="1"/>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10179,7 +10190,7 @@
       <c r="S318" s="1"/>
       <c r="T318" s="1"/>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10201,7 +10212,7 @@
       <c r="S319" s="1"/>
       <c r="T319" s="1"/>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10223,7 +10234,7 @@
       <c r="S320" s="1"/>
       <c r="T320" s="1"/>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10245,7 +10256,7 @@
       <c r="S321" s="1"/>
       <c r="T321" s="1"/>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10267,7 +10278,7 @@
       <c r="S322" s="1"/>
       <c r="T322" s="1"/>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10289,7 +10300,7 @@
       <c r="S323" s="1"/>
       <c r="T323" s="1"/>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10311,7 +10322,7 @@
       <c r="S324" s="1"/>
       <c r="T324" s="1"/>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10333,7 +10344,7 @@
       <c r="S325" s="1"/>
       <c r="T325" s="1"/>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10355,7 +10366,7 @@
       <c r="S326" s="1"/>
       <c r="T326" s="1"/>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10377,7 +10388,7 @@
       <c r="S327" s="1"/>
       <c r="T327" s="1"/>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10399,7 +10410,7 @@
       <c r="S328" s="1"/>
       <c r="T328" s="1"/>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10421,7 +10432,7 @@
       <c r="S329" s="1"/>
       <c r="T329" s="1"/>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10443,7 +10454,7 @@
       <c r="S330" s="1"/>
       <c r="T330" s="1"/>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10465,7 +10476,7 @@
       <c r="S331" s="1"/>
       <c r="T331" s="1"/>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10487,7 +10498,7 @@
       <c r="S332" s="1"/>
       <c r="T332" s="1"/>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10509,7 +10520,7 @@
       <c r="S333" s="1"/>
       <c r="T333" s="1"/>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10531,7 +10542,7 @@
       <c r="S334" s="1"/>
       <c r="T334" s="1"/>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10553,7 +10564,7 @@
       <c r="S335" s="1"/>
       <c r="T335" s="1"/>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10575,7 +10586,7 @@
       <c r="S336" s="1"/>
       <c r="T336" s="1"/>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10597,7 +10608,7 @@
       <c r="S337" s="1"/>
       <c r="T337" s="1"/>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10619,7 +10630,7 @@
       <c r="S338" s="1"/>
       <c r="T338" s="1"/>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10641,7 +10652,7 @@
       <c r="S339" s="1"/>
       <c r="T339" s="1"/>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10663,7 +10674,7 @@
       <c r="S340" s="1"/>
       <c r="T340" s="1"/>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10685,7 +10696,7 @@
       <c r="S341" s="1"/>
       <c r="T341" s="1"/>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10707,7 +10718,7 @@
       <c r="S342" s="1"/>
       <c r="T342" s="1"/>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10729,7 +10740,7 @@
       <c r="S343" s="1"/>
       <c r="T343" s="1"/>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10751,7 +10762,7 @@
       <c r="S344" s="1"/>
       <c r="T344" s="1"/>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10773,7 +10784,7 @@
       <c r="S345" s="1"/>
       <c r="T345" s="1"/>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10795,7 +10806,7 @@
       <c r="S346" s="1"/>
       <c r="T346" s="1"/>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10817,7 +10828,7 @@
       <c r="S347" s="1"/>
       <c r="T347" s="1"/>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10839,7 +10850,7 @@
       <c r="S348" s="1"/>
       <c r="T348" s="1"/>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10861,7 +10872,7 @@
       <c r="S349" s="1"/>
       <c r="T349" s="1"/>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10883,7 +10894,7 @@
       <c r="S350" s="1"/>
       <c r="T350" s="1"/>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10905,7 +10916,7 @@
       <c r="S351" s="1"/>
       <c r="T351" s="1"/>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10927,7 +10938,7 @@
       <c r="S352" s="1"/>
       <c r="T352" s="1"/>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10949,7 +10960,7 @@
       <c r="S353" s="1"/>
       <c r="T353" s="1"/>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10971,7 +10982,7 @@
       <c r="S354" s="1"/>
       <c r="T354" s="1"/>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10993,7 +11004,7 @@
       <c r="S355" s="1"/>
       <c r="T355" s="1"/>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -11015,7 +11026,7 @@
       <c r="S356" s="1"/>
       <c r="T356" s="1"/>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -11037,7 +11048,7 @@
       <c r="S357" s="1"/>
       <c r="T357" s="1"/>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -11059,7 +11070,7 @@
       <c r="S358" s="1"/>
       <c r="T358" s="1"/>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -11081,7 +11092,7 @@
       <c r="S359" s="1"/>
       <c r="T359" s="1"/>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -11103,7 +11114,7 @@
       <c r="S360" s="1"/>
       <c r="T360" s="1"/>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -11125,7 +11136,7 @@
       <c r="S361" s="1"/>
       <c r="T361" s="1"/>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -11147,7 +11158,7 @@
       <c r="S362" s="1"/>
       <c r="T362" s="1"/>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -11169,7 +11180,7 @@
       <c r="S363" s="1"/>
       <c r="T363" s="1"/>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -11191,7 +11202,7 @@
       <c r="S364" s="1"/>
       <c r="T364" s="1"/>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -11213,7 +11224,7 @@
       <c r="S365" s="1"/>
       <c r="T365" s="1"/>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -11235,7 +11246,7 @@
       <c r="S366" s="1"/>
       <c r="T366" s="1"/>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -11257,7 +11268,7 @@
       <c r="S367" s="1"/>
       <c r="T367" s="1"/>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -11279,7 +11290,7 @@
       <c r="S368" s="1"/>
       <c r="T368" s="1"/>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -11301,7 +11312,7 @@
       <c r="S369" s="1"/>
       <c r="T369" s="1"/>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11323,7 +11334,7 @@
       <c r="S370" s="1"/>
       <c r="T370" s="1"/>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11345,7 +11356,7 @@
       <c r="S371" s="1"/>
       <c r="T371" s="1"/>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11367,7 +11378,7 @@
       <c r="S372" s="1"/>
       <c r="T372" s="1"/>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11389,7 +11400,7 @@
       <c r="S373" s="1"/>
       <c r="T373" s="1"/>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11411,7 +11422,7 @@
       <c r="S374" s="1"/>
       <c r="T374" s="1"/>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11433,7 +11444,7 @@
       <c r="S375" s="1"/>
       <c r="T375" s="1"/>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11455,7 +11466,7 @@
       <c r="S376" s="1"/>
       <c r="T376" s="1"/>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11477,7 +11488,7 @@
       <c r="S377" s="1"/>
       <c r="T377" s="1"/>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11499,7 +11510,7 @@
       <c r="S378" s="1"/>
       <c r="T378" s="1"/>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11521,7 +11532,7 @@
       <c r="S379" s="1"/>
       <c r="T379" s="1"/>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11543,7 +11554,7 @@
       <c r="S380" s="1"/>
       <c r="T380" s="1"/>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11565,7 +11576,7 @@
       <c r="S381" s="1"/>
       <c r="T381" s="1"/>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11587,7 +11598,7 @@
       <c r="S382" s="1"/>
       <c r="T382" s="1"/>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11609,7 +11620,7 @@
       <c r="S383" s="1"/>
       <c r="T383" s="1"/>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11631,7 +11642,7 @@
       <c r="S384" s="1"/>
       <c r="T384" s="1"/>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11653,7 +11664,7 @@
       <c r="S385" s="1"/>
       <c r="T385" s="1"/>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11675,7 +11686,7 @@
       <c r="S386" s="1"/>
       <c r="T386" s="1"/>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11697,7 +11708,7 @@
       <c r="S387" s="1"/>
       <c r="T387" s="1"/>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11719,7 +11730,7 @@
       <c r="S388" s="1"/>
       <c r="T388" s="1"/>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11741,7 +11752,7 @@
       <c r="S389" s="1"/>
       <c r="T389" s="1"/>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11763,7 +11774,7 @@
       <c r="S390" s="1"/>
       <c r="T390" s="1"/>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11785,7 +11796,7 @@
       <c r="S391" s="1"/>
       <c r="T391" s="1"/>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11807,7 +11818,7 @@
       <c r="S392" s="1"/>
       <c r="T392" s="1"/>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11829,7 +11840,7 @@
       <c r="S393" s="1"/>
       <c r="T393" s="1"/>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11851,7 +11862,7 @@
       <c r="S394" s="1"/>
       <c r="T394" s="1"/>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11873,7 +11884,7 @@
       <c r="S395" s="1"/>
       <c r="T395" s="1"/>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11895,7 +11906,7 @@
       <c r="S396" s="1"/>
       <c r="T396" s="1"/>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11917,7 +11928,7 @@
       <c r="S397" s="1"/>
       <c r="T397" s="1"/>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11939,7 +11950,7 @@
       <c r="S398" s="1"/>
       <c r="T398" s="1"/>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11961,7 +11972,7 @@
       <c r="S399" s="1"/>
       <c r="T399" s="1"/>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11983,7 +11994,7 @@
       <c r="S400" s="1"/>
       <c r="T400" s="1"/>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -12005,7 +12016,7 @@
       <c r="S401" s="1"/>
       <c r="T401" s="1"/>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -12027,7 +12038,7 @@
       <c r="S402" s="1"/>
       <c r="T402" s="1"/>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -12049,7 +12060,7 @@
       <c r="S403" s="1"/>
       <c r="T403" s="1"/>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -12071,7 +12082,7 @@
       <c r="S404" s="1"/>
       <c r="T404" s="1"/>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -12093,7 +12104,7 @@
       <c r="S405" s="1"/>
       <c r="T405" s="1"/>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -12115,7 +12126,7 @@
       <c r="S406" s="1"/>
       <c r="T406" s="1"/>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -12137,7 +12148,7 @@
       <c r="S407" s="1"/>
       <c r="T407" s="1"/>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -12159,7 +12170,7 @@
       <c r="S408" s="1"/>
       <c r="T408" s="1"/>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -12181,7 +12192,7 @@
       <c r="S409" s="1"/>
       <c r="T409" s="1"/>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12203,7 +12214,7 @@
       <c r="S410" s="1"/>
       <c r="T410" s="1"/>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12225,7 +12236,7 @@
       <c r="S411" s="1"/>
       <c r="T411" s="1"/>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12247,7 +12258,7 @@
       <c r="S412" s="1"/>
       <c r="T412" s="1"/>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12269,7 +12280,7 @@
       <c r="S413" s="1"/>
       <c r="T413" s="1"/>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12291,7 +12302,7 @@
       <c r="S414" s="1"/>
       <c r="T414" s="1"/>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12313,7 +12324,7 @@
       <c r="S415" s="1"/>
       <c r="T415" s="1"/>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12335,7 +12346,7 @@
       <c r="S416" s="1"/>
       <c r="T416" s="1"/>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12357,7 +12368,7 @@
       <c r="S417" s="1"/>
       <c r="T417" s="1"/>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12379,7 +12390,7 @@
       <c r="S418" s="1"/>
       <c r="T418" s="1"/>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12401,7 +12412,7 @@
       <c r="S419" s="1"/>
       <c r="T419" s="1"/>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12423,7 +12434,7 @@
       <c r="S420" s="1"/>
       <c r="T420" s="1"/>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12445,7 +12456,7 @@
       <c r="S421" s="1"/>
       <c r="T421" s="1"/>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12467,7 +12478,7 @@
       <c r="S422" s="1"/>
       <c r="T422" s="1"/>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12489,7 +12500,7 @@
       <c r="S423" s="1"/>
       <c r="T423" s="1"/>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12511,7 +12522,7 @@
       <c r="S424" s="1"/>
       <c r="T424" s="1"/>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12533,7 +12544,7 @@
       <c r="S425" s="1"/>
       <c r="T425" s="1"/>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12555,7 +12566,7 @@
       <c r="S426" s="1"/>
       <c r="T426" s="1"/>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12577,7 +12588,7 @@
       <c r="S427" s="1"/>
       <c r="T427" s="1"/>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12599,7 +12610,7 @@
       <c r="S428" s="1"/>
       <c r="T428" s="1"/>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12621,7 +12632,7 @@
       <c r="S429" s="1"/>
       <c r="T429" s="1"/>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12643,7 +12654,7 @@
       <c r="S430" s="1"/>
       <c r="T430" s="1"/>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12665,7 +12676,7 @@
       <c r="S431" s="1"/>
       <c r="T431" s="1"/>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12687,7 +12698,7 @@
       <c r="S432" s="1"/>
       <c r="T432" s="1"/>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12709,7 +12720,7 @@
       <c r="S433" s="1"/>
       <c r="T433" s="1"/>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12731,7 +12742,7 @@
       <c r="S434" s="1"/>
       <c r="T434" s="1"/>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12753,7 +12764,7 @@
       <c r="S435" s="1"/>
       <c r="T435" s="1"/>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12775,7 +12786,7 @@
       <c r="S436" s="1"/>
       <c r="T436" s="1"/>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12797,7 +12808,7 @@
       <c r="S437" s="1"/>
       <c r="T437" s="1"/>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12819,7 +12830,7 @@
       <c r="S438" s="1"/>
       <c r="T438" s="1"/>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12841,7 +12852,7 @@
       <c r="S439" s="1"/>
       <c r="T439" s="1"/>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12863,7 +12874,7 @@
       <c r="S440" s="1"/>
       <c r="T440" s="1"/>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12885,7 +12896,7 @@
       <c r="S441" s="1"/>
       <c r="T441" s="1"/>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12907,7 +12918,7 @@
       <c r="S442" s="1"/>
       <c r="T442" s="1"/>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12929,7 +12940,7 @@
       <c r="S443" s="1"/>
       <c r="T443" s="1"/>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12951,7 +12962,7 @@
       <c r="S444" s="1"/>
       <c r="T444" s="1"/>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12973,7 +12984,7 @@
       <c r="S445" s="1"/>
       <c r="T445" s="1"/>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12995,7 +13006,7 @@
       <c r="S446" s="1"/>
       <c r="T446" s="1"/>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13017,7 +13028,7 @@
       <c r="S447" s="1"/>
       <c r="T447" s="1"/>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13039,7 +13050,7 @@
       <c r="S448" s="1"/>
       <c r="T448" s="1"/>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13061,7 +13072,7 @@
       <c r="S449" s="1"/>
       <c r="T449" s="1"/>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13083,7 +13094,7 @@
       <c r="S450" s="1"/>
       <c r="T450" s="1"/>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13105,7 +13116,7 @@
       <c r="S451" s="1"/>
       <c r="T451" s="1"/>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13127,7 +13138,7 @@
       <c r="S452" s="1"/>
       <c r="T452" s="1"/>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13149,7 +13160,7 @@
       <c r="S453" s="1"/>
       <c r="T453" s="1"/>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13171,7 +13182,7 @@
       <c r="S454" s="1"/>
       <c r="T454" s="1"/>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13193,7 +13204,7 @@
       <c r="S455" s="1"/>
       <c r="T455" s="1"/>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13215,7 +13226,7 @@
       <c r="S456" s="1"/>
       <c r="T456" s="1"/>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13237,7 +13248,7 @@
       <c r="S457" s="1"/>
       <c r="T457" s="1"/>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13259,7 +13270,7 @@
       <c r="S458" s="1"/>
       <c r="T458" s="1"/>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13281,7 +13292,7 @@
       <c r="S459" s="1"/>
       <c r="T459" s="1"/>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13303,7 +13314,7 @@
       <c r="S460" s="1"/>
       <c r="T460" s="1"/>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13325,7 +13336,7 @@
       <c r="S461" s="1"/>
       <c r="T461" s="1"/>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13347,7 +13358,7 @@
       <c r="S462" s="1"/>
       <c r="T462" s="1"/>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13369,7 +13380,7 @@
       <c r="S463" s="1"/>
       <c r="T463" s="1"/>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13391,7 +13402,7 @@
       <c r="S464" s="1"/>
       <c r="T464" s="1"/>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13413,7 +13424,7 @@
       <c r="S465" s="1"/>
       <c r="T465" s="1"/>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13435,7 +13446,7 @@
       <c r="S466" s="1"/>
       <c r="T466" s="1"/>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13457,7 +13468,7 @@
       <c r="S467" s="1"/>
       <c r="T467" s="1"/>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13479,7 +13490,7 @@
       <c r="S468" s="1"/>
       <c r="T468" s="1"/>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13501,7 +13512,7 @@
       <c r="S469" s="1"/>
       <c r="T469" s="1"/>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13523,7 +13534,7 @@
       <c r="S470" s="1"/>
       <c r="T470" s="1"/>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13545,7 +13556,7 @@
       <c r="S471" s="1"/>
       <c r="T471" s="1"/>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13567,7 +13578,7 @@
       <c r="S472" s="1"/>
       <c r="T472" s="1"/>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13589,7 +13600,7 @@
       <c r="S473" s="1"/>
       <c r="T473" s="1"/>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13611,7 +13622,7 @@
       <c r="S474" s="1"/>
       <c r="T474" s="1"/>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13633,7 +13644,7 @@
       <c r="S475" s="1"/>
       <c r="T475" s="1"/>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13655,7 +13666,7 @@
       <c r="S476" s="1"/>
       <c r="T476" s="1"/>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13677,7 +13688,7 @@
       <c r="S477" s="1"/>
       <c r="T477" s="1"/>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13699,7 +13710,7 @@
       <c r="S478" s="1"/>
       <c r="T478" s="1"/>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13721,7 +13732,7 @@
       <c r="S479" s="1"/>
       <c r="T479" s="1"/>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13743,7 +13754,7 @@
       <c r="S480" s="1"/>
       <c r="T480" s="1"/>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13765,7 +13776,7 @@
       <c r="S481" s="1"/>
       <c r="T481" s="1"/>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13787,7 +13798,7 @@
       <c r="S482" s="1"/>
       <c r="T482" s="1"/>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13809,7 +13820,7 @@
       <c r="S483" s="1"/>
       <c r="T483" s="1"/>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -13831,7 +13842,7 @@
       <c r="S484" s="1"/>
       <c r="T484" s="1"/>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -13853,7 +13864,7 @@
       <c r="S485" s="1"/>
       <c r="T485" s="1"/>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -13875,7 +13886,7 @@
       <c r="S486" s="1"/>
       <c r="T486" s="1"/>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -13897,7 +13908,7 @@
       <c r="S487" s="1"/>
       <c r="T487" s="1"/>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -13919,7 +13930,7 @@
       <c r="S488" s="1"/>
       <c r="T488" s="1"/>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -13941,7 +13952,7 @@
       <c r="S489" s="1"/>
       <c r="T489" s="1"/>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -13963,7 +13974,7 @@
       <c r="S490" s="1"/>
       <c r="T490" s="1"/>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -13985,7 +13996,7 @@
       <c r="S491" s="1"/>
       <c r="T491" s="1"/>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -14007,7 +14018,7 @@
       <c r="S492" s="1"/>
       <c r="T492" s="1"/>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -14029,7 +14040,7 @@
       <c r="S493" s="1"/>
       <c r="T493" s="1"/>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -14051,7 +14062,7 @@
       <c r="S494" s="1"/>
       <c r="T494" s="1"/>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14073,7 +14084,7 @@
       <c r="S495" s="1"/>
       <c r="T495" s="1"/>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14095,7 +14106,7 @@
       <c r="S496" s="1"/>
       <c r="T496" s="1"/>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14117,7 +14128,7 @@
       <c r="S497" s="1"/>
       <c r="T497" s="1"/>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14139,7 +14150,7 @@
       <c r="S498" s="1"/>
       <c r="T498" s="1"/>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -14161,7 +14172,7 @@
       <c r="S499" s="1"/>
       <c r="T499" s="1"/>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -14183,7 +14194,7 @@
       <c r="S500" s="1"/>
       <c r="T500" s="1"/>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -14205,7 +14216,7 @@
       <c r="S501" s="1"/>
       <c r="T501" s="1"/>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -14227,7 +14238,7 @@
       <c r="S502" s="1"/>
       <c r="T502" s="1"/>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -14249,7 +14260,7 @@
       <c r="S503" s="1"/>
       <c r="T503" s="1"/>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -14271,7 +14282,7 @@
       <c r="S504" s="1"/>
       <c r="T504" s="1"/>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -14293,7 +14304,7 @@
       <c r="S505" s="1"/>
       <c r="T505" s="1"/>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -14315,7 +14326,7 @@
       <c r="S506" s="1"/>
       <c r="T506" s="1"/>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -14337,7 +14348,7 @@
       <c r="S507" s="1"/>
       <c r="T507" s="1"/>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -14359,7 +14370,7 @@
       <c r="S508" s="1"/>
       <c r="T508" s="1"/>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -14381,7 +14392,7 @@
       <c r="S509" s="1"/>
       <c r="T509" s="1"/>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -14403,7 +14414,7 @@
       <c r="S510" s="1"/>
       <c r="T510" s="1"/>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -14425,7 +14436,7 @@
       <c r="S511" s="1"/>
       <c r="T511" s="1"/>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -14447,7 +14458,7 @@
       <c r="S512" s="1"/>
       <c r="T512" s="1"/>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -14469,7 +14480,7 @@
       <c r="S513" s="1"/>
       <c r="T513" s="1"/>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -14491,7 +14502,7 @@
       <c r="S514" s="1"/>
       <c r="T514" s="1"/>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -14513,7 +14524,7 @@
       <c r="S515" s="1"/>
       <c r="T515" s="1"/>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -14535,7 +14546,7 @@
       <c r="S516" s="1"/>
       <c r="T516" s="1"/>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -14557,7 +14568,7 @@
       <c r="S517" s="1"/>
       <c r="T517" s="1"/>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -14579,7 +14590,7 @@
       <c r="S518" s="1"/>
       <c r="T518" s="1"/>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -14601,7 +14612,7 @@
       <c r="S519" s="1"/>
       <c r="T519" s="1"/>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -14623,7 +14634,7 @@
       <c r="S520" s="1"/>
       <c r="T520" s="1"/>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -14645,7 +14656,7 @@
       <c r="S521" s="1"/>
       <c r="T521" s="1"/>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -14667,7 +14678,7 @@
       <c r="S522" s="1"/>
       <c r="T522" s="1"/>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -14689,7 +14700,7 @@
       <c r="S523" s="1"/>
       <c r="T523" s="1"/>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -14711,7 +14722,7 @@
       <c r="S524" s="1"/>
       <c r="T524" s="1"/>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -14733,7 +14744,7 @@
       <c r="S525" s="1"/>
       <c r="T525" s="1"/>
     </row>
-    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -14755,7 +14766,7 @@
       <c r="S526" s="1"/>
       <c r="T526" s="1"/>
     </row>
-    <row r="527" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -14777,7 +14788,7 @@
       <c r="S527" s="1"/>
       <c r="T527" s="1"/>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -14799,7 +14810,7 @@
       <c r="S528" s="1"/>
       <c r="T528" s="1"/>
     </row>
-    <row r="529" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -14821,7 +14832,7 @@
       <c r="S529" s="1"/>
       <c r="T529" s="1"/>
     </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -14843,7 +14854,7 @@
       <c r="S530" s="1"/>
       <c r="T530" s="1"/>
     </row>
-    <row r="531" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -14865,7 +14876,7 @@
       <c r="S531" s="1"/>
       <c r="T531" s="1"/>
     </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -14887,7 +14898,7 @@
       <c r="S532" s="1"/>
       <c r="T532" s="1"/>
     </row>
-    <row r="533" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -14909,7 +14920,7 @@
       <c r="S533" s="1"/>
       <c r="T533" s="1"/>
     </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -14931,7 +14942,7 @@
       <c r="S534" s="1"/>
       <c r="T534" s="1"/>
     </row>
-    <row r="535" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -14953,7 +14964,7 @@
       <c r="S535" s="1"/>
       <c r="T535" s="1"/>
     </row>
-    <row r="536" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -14975,7 +14986,7 @@
       <c r="S536" s="1"/>
       <c r="T536" s="1"/>
     </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -14997,7 +15008,7 @@
       <c r="S537" s="1"/>
       <c r="T537" s="1"/>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -15019,7 +15030,7 @@
       <c r="S538" s="1"/>
       <c r="T538" s="1"/>
     </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -15041,7 +15052,7 @@
       <c r="S539" s="1"/>
       <c r="T539" s="1"/>
     </row>
-    <row r="540" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -15063,7 +15074,7 @@
       <c r="S540" s="1"/>
       <c r="T540" s="1"/>
     </row>
-    <row r="541" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -15085,7 +15096,7 @@
       <c r="S541" s="1"/>
       <c r="T541" s="1"/>
     </row>
-    <row r="542" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -15107,7 +15118,7 @@
       <c r="S542" s="1"/>
       <c r="T542" s="1"/>
     </row>
-    <row r="543" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -15129,7 +15140,7 @@
       <c r="S543" s="1"/>
       <c r="T543" s="1"/>
     </row>
-    <row r="544" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -15151,7 +15162,7 @@
       <c r="S544" s="1"/>
       <c r="T544" s="1"/>
     </row>
-    <row r="545" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -15173,7 +15184,7 @@
       <c r="S545" s="1"/>
       <c r="T545" s="1"/>
     </row>
-    <row r="546" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -15195,7 +15206,7 @@
       <c r="S546" s="1"/>
       <c r="T546" s="1"/>
     </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -15217,7 +15228,7 @@
       <c r="S547" s="1"/>
       <c r="T547" s="1"/>
     </row>
-    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -15239,7 +15250,7 @@
       <c r="S548" s="1"/>
       <c r="T548" s="1"/>
     </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -15261,7 +15272,7 @@
       <c r="S549" s="1"/>
       <c r="T549" s="1"/>
     </row>
-    <row r="550" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -15283,7 +15294,7 @@
       <c r="S550" s="1"/>
       <c r="T550" s="1"/>
     </row>
-    <row r="551" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -15305,7 +15316,7 @@
       <c r="S551" s="1"/>
       <c r="T551" s="1"/>
     </row>
-    <row r="552" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -15327,7 +15338,7 @@
       <c r="S552" s="1"/>
       <c r="T552" s="1"/>
     </row>
-    <row r="553" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -15349,7 +15360,7 @@
       <c r="S553" s="1"/>
       <c r="T553" s="1"/>
     </row>
-    <row r="554" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -15371,7 +15382,7 @@
       <c r="S554" s="1"/>
       <c r="T554" s="1"/>
     </row>
-    <row r="555" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -15393,7 +15404,7 @@
       <c r="S555" s="1"/>
       <c r="T555" s="1"/>
     </row>
-    <row r="556" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -15415,7 +15426,7 @@
       <c r="S556" s="1"/>
       <c r="T556" s="1"/>
     </row>
-    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -15437,7 +15448,7 @@
       <c r="S557" s="1"/>
       <c r="T557" s="1"/>
     </row>
-    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -15459,7 +15470,7 @@
       <c r="S558" s="1"/>
       <c r="T558" s="1"/>
     </row>
-    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -15481,7 +15492,7 @@
       <c r="S559" s="1"/>
       <c r="T559" s="1"/>
     </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -15503,7 +15514,7 @@
       <c r="S560" s="1"/>
       <c r="T560" s="1"/>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -15525,7 +15536,7 @@
       <c r="S561" s="1"/>
       <c r="T561" s="1"/>
     </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -15547,7 +15558,7 @@
       <c r="S562" s="1"/>
       <c r="T562" s="1"/>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -15569,7 +15580,7 @@
       <c r="S563" s="1"/>
       <c r="T563" s="1"/>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -15591,7 +15602,7 @@
       <c r="S564" s="1"/>
       <c r="T564" s="1"/>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -15613,7 +15624,7 @@
       <c r="S565" s="1"/>
       <c r="T565" s="1"/>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -15635,7 +15646,7 @@
       <c r="S566" s="1"/>
       <c r="T566" s="1"/>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -15657,7 +15668,7 @@
       <c r="S567" s="1"/>
       <c r="T567" s="1"/>
     </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -15679,7 +15690,7 @@
       <c r="S568" s="1"/>
       <c r="T568" s="1"/>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -15701,7 +15712,7 @@
       <c r="S569" s="1"/>
       <c r="T569" s="1"/>
     </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -15723,7 +15734,7 @@
       <c r="S570" s="1"/>
       <c r="T570" s="1"/>
     </row>
-    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -15745,7 +15756,7 @@
       <c r="S571" s="1"/>
       <c r="T571" s="1"/>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -15767,7 +15778,7 @@
       <c r="S572" s="1"/>
       <c r="T572" s="1"/>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -15789,7 +15800,7 @@
       <c r="S573" s="1"/>
       <c r="T573" s="1"/>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -15811,7 +15822,7 @@
       <c r="S574" s="1"/>
       <c r="T574" s="1"/>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -15833,7 +15844,7 @@
       <c r="S575" s="1"/>
       <c r="T575" s="1"/>
     </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -15855,7 +15866,7 @@
       <c r="S576" s="1"/>
       <c r="T576" s="1"/>
     </row>
-    <row r="577" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -15877,7 +15888,7 @@
       <c r="S577" s="1"/>
       <c r="T577" s="1"/>
     </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -15899,7 +15910,7 @@
       <c r="S578" s="1"/>
       <c r="T578" s="1"/>
     </row>
-    <row r="579" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -15921,7 +15932,7 @@
       <c r="S579" s="1"/>
       <c r="T579" s="1"/>
     </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -15943,7 +15954,7 @@
       <c r="S580" s="1"/>
       <c r="T580" s="1"/>
     </row>
-    <row r="581" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -15965,7 +15976,7 @@
       <c r="S581" s="1"/>
       <c r="T581" s="1"/>
     </row>
-    <row r="582" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -15987,7 +15998,7 @@
       <c r="S582" s="1"/>
       <c r="T582" s="1"/>
     </row>
-    <row r="583" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -16009,7 +16020,7 @@
       <c r="S583" s="1"/>
       <c r="T583" s="1"/>
     </row>
-    <row r="584" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -16031,7 +16042,7 @@
       <c r="S584" s="1"/>
       <c r="T584" s="1"/>
     </row>
-    <row r="585" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -16053,7 +16064,7 @@
       <c r="S585" s="1"/>
       <c r="T585" s="1"/>
     </row>
-    <row r="586" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -16075,7 +16086,7 @@
       <c r="S586" s="1"/>
       <c r="T586" s="1"/>
     </row>
-    <row r="587" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -16097,7 +16108,7 @@
       <c r="S587" s="1"/>
       <c r="T587" s="1"/>
     </row>
-    <row r="588" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -16119,7 +16130,7 @@
       <c r="S588" s="1"/>
       <c r="T588" s="1"/>
     </row>
-    <row r="589" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -16141,7 +16152,7 @@
       <c r="S589" s="1"/>
       <c r="T589" s="1"/>
     </row>
-    <row r="590" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -16163,7 +16174,7 @@
       <c r="S590" s="1"/>
       <c r="T590" s="1"/>
     </row>
-    <row r="591" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -16185,7 +16196,7 @@
       <c r="S591" s="1"/>
       <c r="T591" s="1"/>
     </row>
-    <row r="592" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -16207,7 +16218,7 @@
       <c r="S592" s="1"/>
       <c r="T592" s="1"/>
     </row>
-    <row r="593" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -16229,7 +16240,7 @@
       <c r="S593" s="1"/>
       <c r="T593" s="1"/>
     </row>
-    <row r="594" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -16251,7 +16262,7 @@
       <c r="S594" s="1"/>
       <c r="T594" s="1"/>
     </row>
-    <row r="595" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -16273,7 +16284,7 @@
       <c r="S595" s="1"/>
       <c r="T595" s="1"/>
     </row>
-    <row r="596" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -16295,7 +16306,7 @@
       <c r="S596" s="1"/>
       <c r="T596" s="1"/>
     </row>
-    <row r="597" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -16317,7 +16328,7 @@
       <c r="S597" s="1"/>
       <c r="T597" s="1"/>
     </row>
-    <row r="598" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -16339,7 +16350,7 @@
       <c r="S598" s="1"/>
       <c r="T598" s="1"/>
     </row>
-    <row r="599" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -16361,7 +16372,7 @@
       <c r="S599" s="1"/>
       <c r="T599" s="1"/>
     </row>
-    <row r="600" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -16383,7 +16394,7 @@
       <c r="S600" s="1"/>
       <c r="T600" s="1"/>
     </row>
-    <row r="601" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -16405,7 +16416,7 @@
       <c r="S601" s="1"/>
       <c r="T601" s="1"/>
     </row>
-    <row r="602" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -16427,7 +16438,7 @@
       <c r="S602" s="1"/>
       <c r="T602" s="1"/>
     </row>
-    <row r="603" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -16449,7 +16460,7 @@
       <c r="S603" s="1"/>
       <c r="T603" s="1"/>
     </row>
-    <row r="604" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -16471,7 +16482,7 @@
       <c r="S604" s="1"/>
       <c r="T604" s="1"/>
     </row>
-    <row r="605" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -16493,7 +16504,7 @@
       <c r="S605" s="1"/>
       <c r="T605" s="1"/>
     </row>
-    <row r="606" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -16515,7 +16526,7 @@
       <c r="S606" s="1"/>
       <c r="T606" s="1"/>
     </row>
-    <row r="607" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -16537,7 +16548,7 @@
       <c r="S607" s="1"/>
       <c r="T607" s="1"/>
     </row>
-    <row r="608" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -16559,7 +16570,7 @@
       <c r="S608" s="1"/>
       <c r="T608" s="1"/>
     </row>
-    <row r="609" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -16581,7 +16592,7 @@
       <c r="S609" s="1"/>
       <c r="T609" s="1"/>
     </row>
-    <row r="610" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -16603,7 +16614,7 @@
       <c r="S610" s="1"/>
       <c r="T610" s="1"/>
     </row>
-    <row r="611" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -16625,7 +16636,7 @@
       <c r="S611" s="1"/>
       <c r="T611" s="1"/>
     </row>
-    <row r="612" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -16647,7 +16658,7 @@
       <c r="S612" s="1"/>
       <c r="T612" s="1"/>
     </row>
-    <row r="613" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -16669,7 +16680,7 @@
       <c r="S613" s="1"/>
       <c r="T613" s="1"/>
     </row>
-    <row r="614" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -16691,7 +16702,7 @@
       <c r="S614" s="1"/>
       <c r="T614" s="1"/>
     </row>
-    <row r="615" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -16713,7 +16724,7 @@
       <c r="S615" s="1"/>
       <c r="T615" s="1"/>
     </row>
-    <row r="616" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -16735,7 +16746,7 @@
       <c r="S616" s="1"/>
       <c r="T616" s="1"/>
     </row>
-    <row r="617" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -16757,7 +16768,7 @@
       <c r="S617" s="1"/>
       <c r="T617" s="1"/>
     </row>
-    <row r="618" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -16779,7 +16790,7 @@
       <c r="S618" s="1"/>
       <c r="T618" s="1"/>
     </row>
-    <row r="619" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -16801,7 +16812,7 @@
       <c r="S619" s="1"/>
       <c r="T619" s="1"/>
     </row>
-    <row r="620" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -16823,7 +16834,7 @@
       <c r="S620" s="1"/>
       <c r="T620" s="1"/>
     </row>
-    <row r="621" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -16845,7 +16856,7 @@
       <c r="S621" s="1"/>
       <c r="T621" s="1"/>
     </row>
-    <row r="622" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -16867,7 +16878,7 @@
       <c r="S622" s="1"/>
       <c r="T622" s="1"/>
     </row>
-    <row r="623" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -16889,7 +16900,7 @@
       <c r="S623" s="1"/>
       <c r="T623" s="1"/>
     </row>
-    <row r="624" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -16911,7 +16922,7 @@
       <c r="S624" s="1"/>
       <c r="T624" s="1"/>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -16933,7 +16944,7 @@
       <c r="S625" s="1"/>
       <c r="T625" s="1"/>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -16955,7 +16966,7 @@
       <c r="S626" s="1"/>
       <c r="T626" s="1"/>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -16977,7 +16988,7 @@
       <c r="S627" s="1"/>
       <c r="T627" s="1"/>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -16999,7 +17010,7 @@
       <c r="S628" s="1"/>
       <c r="T628" s="1"/>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -17021,7 +17032,7 @@
       <c r="S629" s="1"/>
       <c r="T629" s="1"/>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -17043,7 +17054,7 @@
       <c r="S630" s="1"/>
       <c r="T630" s="1"/>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -17065,7 +17076,7 @@
       <c r="S631" s="1"/>
       <c r="T631" s="1"/>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -17087,7 +17098,7 @@
       <c r="S632" s="1"/>
       <c r="T632" s="1"/>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -17109,7 +17120,7 @@
       <c r="S633" s="1"/>
       <c r="T633" s="1"/>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -17131,7 +17142,7 @@
       <c r="S634" s="1"/>
       <c r="T634" s="1"/>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -17153,7 +17164,7 @@
       <c r="S635" s="1"/>
       <c r="T635" s="1"/>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -17175,7 +17186,7 @@
       <c r="S636" s="1"/>
       <c r="T636" s="1"/>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -17197,7 +17208,7 @@
       <c r="S637" s="1"/>
       <c r="T637" s="1"/>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -17219,7 +17230,7 @@
       <c r="S638" s="1"/>
       <c r="T638" s="1"/>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -17241,7 +17252,7 @@
       <c r="S639" s="1"/>
       <c r="T639" s="1"/>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -17263,7 +17274,7 @@
       <c r="S640" s="1"/>
       <c r="T640" s="1"/>
     </row>
-    <row r="641" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -17285,7 +17296,7 @@
       <c r="S641" s="1"/>
       <c r="T641" s="1"/>
     </row>
-    <row r="642" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -17307,7 +17318,7 @@
       <c r="S642" s="1"/>
       <c r="T642" s="1"/>
     </row>
-    <row r="643" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -17329,7 +17340,7 @@
       <c r="S643" s="1"/>
       <c r="T643" s="1"/>
     </row>
-    <row r="644" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -17351,7 +17362,7 @@
       <c r="S644" s="1"/>
       <c r="T644" s="1"/>
     </row>
-    <row r="645" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -17373,7 +17384,7 @@
       <c r="S645" s="1"/>
       <c r="T645" s="1"/>
     </row>
-    <row r="646" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -17395,7 +17406,7 @@
       <c r="S646" s="1"/>
       <c r="T646" s="1"/>
     </row>
-    <row r="647" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -17417,7 +17428,7 @@
       <c r="S647" s="1"/>
       <c r="T647" s="1"/>
     </row>
-    <row r="648" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -17439,7 +17450,7 @@
       <c r="S648" s="1"/>
       <c r="T648" s="1"/>
     </row>
-    <row r="649" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -17461,7 +17472,7 @@
       <c r="S649" s="1"/>
       <c r="T649" s="1"/>
     </row>
-    <row r="650" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -17483,7 +17494,7 @@
       <c r="S650" s="1"/>
       <c r="T650" s="1"/>
     </row>
-    <row r="651" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -17505,7 +17516,7 @@
       <c r="S651" s="1"/>
       <c r="T651" s="1"/>
     </row>
-    <row r="652" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -17527,7 +17538,7 @@
       <c r="S652" s="1"/>
       <c r="T652" s="1"/>
     </row>
-    <row r="653" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -17549,7 +17560,7 @@
       <c r="S653" s="1"/>
       <c r="T653" s="1"/>
     </row>
-    <row r="654" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -17571,7 +17582,7 @@
       <c r="S654" s="1"/>
       <c r="T654" s="1"/>
     </row>
-    <row r="655" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -17593,7 +17604,7 @@
       <c r="S655" s="1"/>
       <c r="T655" s="1"/>
     </row>
-    <row r="656" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -17615,7 +17626,7 @@
       <c r="S656" s="1"/>
       <c r="T656" s="1"/>
     </row>
-    <row r="657" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -17637,7 +17648,7 @@
       <c r="S657" s="1"/>
       <c r="T657" s="1"/>
     </row>
-    <row r="658" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -17659,7 +17670,7 @@
       <c r="S658" s="1"/>
       <c r="T658" s="1"/>
     </row>
-    <row r="659" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -17681,7 +17692,7 @@
       <c r="S659" s="1"/>
       <c r="T659" s="1"/>
     </row>
-    <row r="660" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -17703,7 +17714,7 @@
       <c r="S660" s="1"/>
       <c r="T660" s="1"/>
     </row>
-    <row r="661" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -17725,7 +17736,7 @@
       <c r="S661" s="1"/>
       <c r="T661" s="1"/>
     </row>
-    <row r="662" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -17747,7 +17758,7 @@
       <c r="S662" s="1"/>
       <c r="T662" s="1"/>
     </row>
-    <row r="663" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -17769,7 +17780,7 @@
       <c r="S663" s="1"/>
       <c r="T663" s="1"/>
     </row>
-    <row r="664" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -17791,7 +17802,7 @@
       <c r="S664" s="1"/>
       <c r="T664" s="1"/>
     </row>
-    <row r="665" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -17813,7 +17824,7 @@
       <c r="S665" s="1"/>
       <c r="T665" s="1"/>
     </row>
-    <row r="666" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -17835,7 +17846,7 @@
       <c r="S666" s="1"/>
       <c r="T666" s="1"/>
     </row>
-    <row r="667" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -17857,7 +17868,7 @@
       <c r="S667" s="1"/>
       <c r="T667" s="1"/>
     </row>
-    <row r="668" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -17879,7 +17890,7 @@
       <c r="S668" s="1"/>
       <c r="T668" s="1"/>
     </row>
-    <row r="669" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -17901,7 +17912,7 @@
       <c r="S669" s="1"/>
       <c r="T669" s="1"/>
     </row>
-    <row r="670" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -17923,7 +17934,7 @@
       <c r="S670" s="1"/>
       <c r="T670" s="1"/>
     </row>
-    <row r="671" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -17945,7 +17956,7 @@
       <c r="S671" s="1"/>
       <c r="T671" s="1"/>
     </row>
-    <row r="672" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -17967,7 +17978,7 @@
       <c r="S672" s="1"/>
       <c r="T672" s="1"/>
     </row>
-    <row r="673" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -17989,7 +18000,7 @@
       <c r="S673" s="1"/>
       <c r="T673" s="1"/>
     </row>
-    <row r="674" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -18011,7 +18022,7 @@
       <c r="S674" s="1"/>
       <c r="T674" s="1"/>
     </row>
-    <row r="675" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -18033,7 +18044,7 @@
       <c r="S675" s="1"/>
       <c r="T675" s="1"/>
     </row>
-    <row r="676" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -18055,7 +18066,7 @@
       <c r="S676" s="1"/>
       <c r="T676" s="1"/>
     </row>
-    <row r="677" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -18077,7 +18088,7 @@
       <c r="S677" s="1"/>
       <c r="T677" s="1"/>
     </row>
-    <row r="678" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -18099,7 +18110,7 @@
       <c r="S678" s="1"/>
       <c r="T678" s="1"/>
     </row>
-    <row r="679" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -18121,7 +18132,7 @@
       <c r="S679" s="1"/>
       <c r="T679" s="1"/>
     </row>
-    <row r="680" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -18143,7 +18154,7 @@
       <c r="S680" s="1"/>
       <c r="T680" s="1"/>
     </row>
-    <row r="681" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -18165,7 +18176,7 @@
       <c r="S681" s="1"/>
       <c r="T681" s="1"/>
     </row>
-    <row r="682" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -18187,7 +18198,7 @@
       <c r="S682" s="1"/>
       <c r="T682" s="1"/>
     </row>
-    <row r="683" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -18209,7 +18220,7 @@
       <c r="S683" s="1"/>
       <c r="T683" s="1"/>
     </row>
-    <row r="684" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -18231,7 +18242,7 @@
       <c r="S684" s="1"/>
       <c r="T684" s="1"/>
     </row>
-    <row r="685" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -18253,7 +18264,7 @@
       <c r="S685" s="1"/>
       <c r="T685" s="1"/>
     </row>
-    <row r="686" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -18275,7 +18286,7 @@
       <c r="S686" s="1"/>
       <c r="T686" s="1"/>
     </row>
-    <row r="687" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -18297,7 +18308,7 @@
       <c r="S687" s="1"/>
       <c r="T687" s="1"/>
     </row>
-    <row r="688" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -18319,7 +18330,7 @@
       <c r="S688" s="1"/>
       <c r="T688" s="1"/>
     </row>
-    <row r="689" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -18341,7 +18352,7 @@
       <c r="S689" s="1"/>
       <c r="T689" s="1"/>
     </row>
-    <row r="690" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -18363,7 +18374,7 @@
       <c r="S690" s="1"/>
       <c r="T690" s="1"/>
     </row>
-    <row r="691" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -18385,7 +18396,7 @@
       <c r="S691" s="1"/>
       <c r="T691" s="1"/>
     </row>
-    <row r="692" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -18407,7 +18418,7 @@
       <c r="S692" s="1"/>
       <c r="T692" s="1"/>
     </row>
-    <row r="693" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -18429,7 +18440,7 @@
       <c r="S693" s="1"/>
       <c r="T693" s="1"/>
     </row>
-    <row r="694" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -18451,7 +18462,7 @@
       <c r="S694" s="1"/>
       <c r="T694" s="1"/>
     </row>
-    <row r="695" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -18473,7 +18484,7 @@
       <c r="S695" s="1"/>
       <c r="T695" s="1"/>
     </row>
-    <row r="696" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -18495,7 +18506,7 @@
       <c r="S696" s="1"/>
       <c r="T696" s="1"/>
     </row>
-    <row r="697" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -18517,7 +18528,7 @@
       <c r="S697" s="1"/>
       <c r="T697" s="1"/>
     </row>
-    <row r="698" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -18539,7 +18550,7 @@
       <c r="S698" s="1"/>
       <c r="T698" s="1"/>
     </row>
-    <row r="699" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -18561,7 +18572,7 @@
       <c r="S699" s="1"/>
       <c r="T699" s="1"/>
     </row>
-    <row r="700" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -18583,7 +18594,7 @@
       <c r="S700" s="1"/>
       <c r="T700" s="1"/>
     </row>
-    <row r="701" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -18605,7 +18616,7 @@
       <c r="S701" s="1"/>
       <c r="T701" s="1"/>
     </row>
-    <row r="702" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -18627,7 +18638,7 @@
       <c r="S702" s="1"/>
       <c r="T702" s="1"/>
     </row>
-    <row r="703" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -18649,7 +18660,7 @@
       <c r="S703" s="1"/>
       <c r="T703" s="1"/>
     </row>
-    <row r="704" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -18671,7 +18682,7 @@
       <c r="S704" s="1"/>
       <c r="T704" s="1"/>
     </row>
-    <row r="705" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -18693,7 +18704,7 @@
       <c r="S705" s="1"/>
       <c r="T705" s="1"/>
     </row>
-    <row r="706" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -18715,7 +18726,7 @@
       <c r="S706" s="1"/>
       <c r="T706" s="1"/>
     </row>
-    <row r="707" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -18737,7 +18748,7 @@
       <c r="S707" s="1"/>
       <c r="T707" s="1"/>
     </row>
-    <row r="708" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -18759,7 +18770,7 @@
       <c r="S708" s="1"/>
       <c r="T708" s="1"/>
     </row>
-    <row r="709" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -18781,7 +18792,7 @@
       <c r="S709" s="1"/>
       <c r="T709" s="1"/>
     </row>
-    <row r="710" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -18803,7 +18814,7 @@
       <c r="S710" s="1"/>
       <c r="T710" s="1"/>
     </row>
-    <row r="711" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -18825,7 +18836,7 @@
       <c r="S711" s="1"/>
       <c r="T711" s="1"/>
     </row>
-    <row r="712" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -18847,7 +18858,7 @@
       <c r="S712" s="1"/>
       <c r="T712" s="1"/>
     </row>
-    <row r="713" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -18869,7 +18880,7 @@
       <c r="S713" s="1"/>
       <c r="T713" s="1"/>
     </row>
-    <row r="714" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -18891,7 +18902,7 @@
       <c r="S714" s="1"/>
       <c r="T714" s="1"/>
     </row>
-    <row r="715" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -18913,7 +18924,7 @@
       <c r="S715" s="1"/>
       <c r="T715" s="1"/>
     </row>
-    <row r="716" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -18935,7 +18946,7 @@
       <c r="S716" s="1"/>
       <c r="T716" s="1"/>
     </row>
-    <row r="717" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -18957,7 +18968,7 @@
       <c r="S717" s="1"/>
       <c r="T717" s="1"/>
     </row>
-    <row r="718" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -18979,7 +18990,7 @@
       <c r="S718" s="1"/>
       <c r="T718" s="1"/>
     </row>
-    <row r="719" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -19001,7 +19012,7 @@
       <c r="S719" s="1"/>
       <c r="T719" s="1"/>
     </row>
-    <row r="720" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -19023,7 +19034,7 @@
       <c r="S720" s="1"/>
       <c r="T720" s="1"/>
     </row>
-    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -19045,7 +19056,7 @@
       <c r="S721" s="1"/>
       <c r="T721" s="1"/>
     </row>
-    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -19067,7 +19078,7 @@
       <c r="S722" s="1"/>
       <c r="T722" s="1"/>
     </row>
-    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -19089,7 +19100,7 @@
       <c r="S723" s="1"/>
       <c r="T723" s="1"/>
     </row>
-    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -19111,7 +19122,7 @@
       <c r="S724" s="1"/>
       <c r="T724" s="1"/>
     </row>
-    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -19133,7 +19144,7 @@
       <c r="S725" s="1"/>
       <c r="T725" s="1"/>
     </row>
-    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -19155,7 +19166,7 @@
       <c r="S726" s="1"/>
       <c r="T726" s="1"/>
     </row>
-    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -19177,7 +19188,7 @@
       <c r="S727" s="1"/>
       <c r="T727" s="1"/>
     </row>
-    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -19199,7 +19210,7 @@
       <c r="S728" s="1"/>
       <c r="T728" s="1"/>
     </row>
-    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -19221,7 +19232,7 @@
       <c r="S729" s="1"/>
       <c r="T729" s="1"/>
     </row>
-    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -19243,7 +19254,7 @@
       <c r="S730" s="1"/>
       <c r="T730" s="1"/>
     </row>
-    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -19265,7 +19276,7 @@
       <c r="S731" s="1"/>
       <c r="T731" s="1"/>
     </row>
-    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -19287,7 +19298,7 @@
       <c r="S732" s="1"/>
       <c r="T732" s="1"/>
     </row>
-    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -19309,7 +19320,7 @@
       <c r="S733" s="1"/>
       <c r="T733" s="1"/>
     </row>
-    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -19331,7 +19342,7 @@
       <c r="S734" s="1"/>
       <c r="T734" s="1"/>
     </row>
-    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -19353,7 +19364,7 @@
       <c r="S735" s="1"/>
       <c r="T735" s="1"/>
     </row>
-    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -19375,7 +19386,7 @@
       <c r="S736" s="1"/>
       <c r="T736" s="1"/>
     </row>
-    <row r="737" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -19397,7 +19408,7 @@
       <c r="S737" s="1"/>
       <c r="T737" s="1"/>
     </row>
-    <row r="738" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -19419,7 +19430,7 @@
       <c r="S738" s="1"/>
       <c r="T738" s="1"/>
     </row>
-    <row r="739" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -19441,7 +19452,7 @@
       <c r="S739" s="1"/>
       <c r="T739" s="1"/>
     </row>
-    <row r="740" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -19463,7 +19474,7 @@
       <c r="S740" s="1"/>
       <c r="T740" s="1"/>
     </row>
-    <row r="741" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -19485,7 +19496,7 @@
       <c r="S741" s="1"/>
       <c r="T741" s="1"/>
     </row>
-    <row r="742" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -19507,7 +19518,7 @@
       <c r="S742" s="1"/>
       <c r="T742" s="1"/>
     </row>
-    <row r="743" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -19529,7 +19540,7 @@
       <c r="S743" s="1"/>
       <c r="T743" s="1"/>
     </row>
-    <row r="744" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -19551,7 +19562,7 @@
       <c r="S744" s="1"/>
       <c r="T744" s="1"/>
     </row>
-    <row r="745" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -19573,7 +19584,7 @@
       <c r="S745" s="1"/>
       <c r="T745" s="1"/>
     </row>
-    <row r="746" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -19595,7 +19606,7 @@
       <c r="S746" s="1"/>
       <c r="T746" s="1"/>
     </row>
-    <row r="747" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -19617,7 +19628,7 @@
       <c r="S747" s="1"/>
       <c r="T747" s="1"/>
     </row>
-    <row r="748" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -19639,7 +19650,7 @@
       <c r="S748" s="1"/>
       <c r="T748" s="1"/>
     </row>
-    <row r="749" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -19661,7 +19672,7 @@
       <c r="S749" s="1"/>
       <c r="T749" s="1"/>
     </row>
-    <row r="750" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -19683,7 +19694,7 @@
       <c r="S750" s="1"/>
       <c r="T750" s="1"/>
     </row>
-    <row r="751" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -19705,7 +19716,7 @@
       <c r="S751" s="1"/>
       <c r="T751" s="1"/>
     </row>
-    <row r="752" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -19727,7 +19738,7 @@
       <c r="S752" s="1"/>
       <c r="T752" s="1"/>
     </row>
-    <row r="753" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -19749,7 +19760,7 @@
       <c r="S753" s="1"/>
       <c r="T753" s="1"/>
     </row>
-    <row r="754" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -19771,7 +19782,7 @@
       <c r="S754" s="1"/>
       <c r="T754" s="1"/>
     </row>
-    <row r="755" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -19793,7 +19804,7 @@
       <c r="S755" s="1"/>
       <c r="T755" s="1"/>
     </row>
-    <row r="756" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -19815,7 +19826,7 @@
       <c r="S756" s="1"/>
       <c r="T756" s="1"/>
     </row>
-    <row r="757" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -19837,7 +19848,7 @@
       <c r="S757" s="1"/>
       <c r="T757" s="1"/>
     </row>
-    <row r="758" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -19859,7 +19870,7 @@
       <c r="S758" s="1"/>
       <c r="T758" s="1"/>
     </row>
-    <row r="759" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -19881,7 +19892,7 @@
       <c r="S759" s="1"/>
       <c r="T759" s="1"/>
     </row>
-    <row r="760" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -19903,7 +19914,7 @@
       <c r="S760" s="1"/>
       <c r="T760" s="1"/>
     </row>
-    <row r="761" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -19925,7 +19936,7 @@
       <c r="S761" s="1"/>
       <c r="T761" s="1"/>
     </row>
-    <row r="762" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -19947,7 +19958,7 @@
       <c r="S762" s="1"/>
       <c r="T762" s="1"/>
     </row>
-    <row r="763" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -19969,7 +19980,7 @@
       <c r="S763" s="1"/>
       <c r="T763" s="1"/>
     </row>
-    <row r="764" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -19991,7 +20002,7 @@
       <c r="S764" s="1"/>
       <c r="T764" s="1"/>
     </row>
-    <row r="765" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -20013,7 +20024,7 @@
       <c r="S765" s="1"/>
       <c r="T765" s="1"/>
     </row>
-    <row r="766" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -20035,7 +20046,7 @@
       <c r="S766" s="1"/>
       <c r="T766" s="1"/>
     </row>
-    <row r="767" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -20057,7 +20068,7 @@
       <c r="S767" s="1"/>
       <c r="T767" s="1"/>
     </row>
-    <row r="768" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -20079,7 +20090,7 @@
       <c r="S768" s="1"/>
       <c r="T768" s="1"/>
     </row>
-    <row r="769" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -20101,7 +20112,7 @@
       <c r="S769" s="1"/>
       <c r="T769" s="1"/>
     </row>
-    <row r="770" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -20123,7 +20134,7 @@
       <c r="S770" s="1"/>
       <c r="T770" s="1"/>
     </row>
-    <row r="771" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -20145,7 +20156,7 @@
       <c r="S771" s="1"/>
       <c r="T771" s="1"/>
     </row>
-    <row r="772" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -20167,7 +20178,7 @@
       <c r="S772" s="1"/>
       <c r="T772" s="1"/>
     </row>
-    <row r="773" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -20189,7 +20200,7 @@
       <c r="S773" s="1"/>
       <c r="T773" s="1"/>
     </row>
-    <row r="774" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -20211,7 +20222,7 @@
       <c r="S774" s="1"/>
       <c r="T774" s="1"/>
     </row>
-    <row r="775" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -20233,7 +20244,7 @@
       <c r="S775" s="1"/>
       <c r="T775" s="1"/>
     </row>
-    <row r="776" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -20255,7 +20266,7 @@
       <c r="S776" s="1"/>
       <c r="T776" s="1"/>
     </row>
-    <row r="777" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -20277,7 +20288,7 @@
       <c r="S777" s="1"/>
       <c r="T777" s="1"/>
     </row>
-    <row r="778" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -20299,7 +20310,7 @@
       <c r="S778" s="1"/>
       <c r="T778" s="1"/>
     </row>
-    <row r="779" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -20321,7 +20332,7 @@
       <c r="S779" s="1"/>
       <c r="T779" s="1"/>
     </row>
-    <row r="780" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -20343,7 +20354,7 @@
       <c r="S780" s="1"/>
       <c r="T780" s="1"/>
     </row>
-    <row r="781" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -20365,7 +20376,7 @@
       <c r="S781" s="1"/>
       <c r="T781" s="1"/>
     </row>
-    <row r="782" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -20387,7 +20398,7 @@
       <c r="S782" s="1"/>
       <c r="T782" s="1"/>
     </row>
-    <row r="783" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -20409,7 +20420,7 @@
       <c r="S783" s="1"/>
       <c r="T783" s="1"/>
     </row>
-    <row r="784" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -20431,7 +20442,7 @@
       <c r="S784" s="1"/>
       <c r="T784" s="1"/>
     </row>
-    <row r="785" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -20453,7 +20464,7 @@
       <c r="S785" s="1"/>
       <c r="T785" s="1"/>
     </row>
-    <row r="786" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -20475,7 +20486,7 @@
       <c r="S786" s="1"/>
       <c r="T786" s="1"/>
     </row>
-    <row r="787" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -20497,7 +20508,7 @@
       <c r="S787" s="1"/>
       <c r="T787" s="1"/>
     </row>
-    <row r="788" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -20519,7 +20530,7 @@
       <c r="S788" s="1"/>
       <c r="T788" s="1"/>
     </row>
-    <row r="789" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -20541,7 +20552,7 @@
       <c r="S789" s="1"/>
       <c r="T789" s="1"/>
     </row>
-    <row r="790" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -20563,7 +20574,7 @@
       <c r="S790" s="1"/>
       <c r="T790" s="1"/>
     </row>
-    <row r="791" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -20585,7 +20596,7 @@
       <c r="S791" s="1"/>
       <c r="T791" s="1"/>
     </row>
-    <row r="792" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -20607,7 +20618,7 @@
       <c r="S792" s="1"/>
       <c r="T792" s="1"/>
     </row>
-    <row r="793" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -20629,7 +20640,7 @@
       <c r="S793" s="1"/>
       <c r="T793" s="1"/>
     </row>
-    <row r="794" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -20651,7 +20662,7 @@
       <c r="S794" s="1"/>
       <c r="T794" s="1"/>
     </row>
-    <row r="795" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -20673,7 +20684,7 @@
       <c r="S795" s="1"/>
       <c r="T795" s="1"/>
     </row>
-    <row r="796" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -20695,7 +20706,7 @@
       <c r="S796" s="1"/>
       <c r="T796" s="1"/>
     </row>
-    <row r="797" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -20717,7 +20728,7 @@
       <c r="S797" s="1"/>
       <c r="T797" s="1"/>
     </row>
-    <row r="798" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -20739,7 +20750,7 @@
       <c r="S798" s="1"/>
       <c r="T798" s="1"/>
     </row>
-    <row r="799" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -20761,7 +20772,7 @@
       <c r="S799" s="1"/>
       <c r="T799" s="1"/>
     </row>
-    <row r="800" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -20783,7 +20794,7 @@
       <c r="S800" s="1"/>
       <c r="T800" s="1"/>
     </row>
-    <row r="801" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -20805,7 +20816,7 @@
       <c r="S801" s="1"/>
       <c r="T801" s="1"/>
     </row>
-    <row r="802" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -20827,7 +20838,7 @@
       <c r="S802" s="1"/>
       <c r="T802" s="1"/>
     </row>
-    <row r="803" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -20849,7 +20860,7 @@
       <c r="S803" s="1"/>
       <c r="T803" s="1"/>
     </row>
-    <row r="804" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -20871,7 +20882,7 @@
       <c r="S804" s="1"/>
       <c r="T804" s="1"/>
     </row>
-    <row r="805" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -20893,7 +20904,7 @@
       <c r="S805" s="1"/>
       <c r="T805" s="1"/>
     </row>
-    <row r="806" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -20915,7 +20926,7 @@
       <c r="S806" s="1"/>
       <c r="T806" s="1"/>
     </row>
-    <row r="807" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -20937,7 +20948,7 @@
       <c r="S807" s="1"/>
       <c r="T807" s="1"/>
     </row>
-    <row r="808" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -20959,7 +20970,7 @@
       <c r="S808" s="1"/>
       <c r="T808" s="1"/>
     </row>
-    <row r="809" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -20981,7 +20992,7 @@
       <c r="S809" s="1"/>
       <c r="T809" s="1"/>
     </row>
-    <row r="810" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -21003,7 +21014,7 @@
       <c r="S810" s="1"/>
       <c r="T810" s="1"/>
     </row>
-    <row r="811" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -21025,7 +21036,7 @@
       <c r="S811" s="1"/>
       <c r="T811" s="1"/>
     </row>
-    <row r="812" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -21047,7 +21058,7 @@
       <c r="S812" s="1"/>
       <c r="T812" s="1"/>
     </row>
-    <row r="813" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -21069,7 +21080,7 @@
       <c r="S813" s="1"/>
       <c r="T813" s="1"/>
     </row>
-    <row r="814" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -21091,7 +21102,7 @@
       <c r="S814" s="1"/>
       <c r="T814" s="1"/>
     </row>
-    <row r="815" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -21113,7 +21124,7 @@
       <c r="S815" s="1"/>
       <c r="T815" s="1"/>
     </row>
-    <row r="816" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -21135,7 +21146,7 @@
       <c r="S816" s="1"/>
       <c r="T816" s="1"/>
     </row>
-    <row r="817" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -21157,7 +21168,7 @@
       <c r="S817" s="1"/>
       <c r="T817" s="1"/>
     </row>
-    <row r="818" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -21179,7 +21190,7 @@
       <c r="S818" s="1"/>
       <c r="T818" s="1"/>
     </row>
-    <row r="819" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -21201,7 +21212,7 @@
       <c r="S819" s="1"/>
       <c r="T819" s="1"/>
     </row>
-    <row r="820" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -21223,7 +21234,7 @@
       <c r="S820" s="1"/>
       <c r="T820" s="1"/>
     </row>
-    <row r="821" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -21245,7 +21256,7 @@
       <c r="S821" s="1"/>
       <c r="T821" s="1"/>
     </row>
-    <row r="822" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -21267,7 +21278,7 @@
       <c r="S822" s="1"/>
       <c r="T822" s="1"/>
     </row>
-    <row r="823" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -21289,7 +21300,7 @@
       <c r="S823" s="1"/>
       <c r="T823" s="1"/>
     </row>
-    <row r="824" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -21311,7 +21322,7 @@
       <c r="S824" s="1"/>
       <c r="T824" s="1"/>
     </row>
-    <row r="825" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -21333,7 +21344,7 @@
       <c r="S825" s="1"/>
       <c r="T825" s="1"/>
     </row>
-    <row r="826" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -21355,7 +21366,7 @@
       <c r="S826" s="1"/>
       <c r="T826" s="1"/>
     </row>
-    <row r="827" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -21377,7 +21388,7 @@
       <c r="S827" s="1"/>
       <c r="T827" s="1"/>
     </row>
-    <row r="828" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -21399,7 +21410,7 @@
       <c r="S828" s="1"/>
       <c r="T828" s="1"/>
     </row>
-    <row r="829" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -21421,7 +21432,7 @@
       <c r="S829" s="1"/>
       <c r="T829" s="1"/>
     </row>
-    <row r="830" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -21443,7 +21454,7 @@
       <c r="S830" s="1"/>
       <c r="T830" s="1"/>
     </row>
-    <row r="831" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -21465,7 +21476,7 @@
       <c r="S831" s="1"/>
       <c r="T831" s="1"/>
     </row>
-    <row r="832" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -21487,7 +21498,7 @@
       <c r="S832" s="1"/>
       <c r="T832" s="1"/>
     </row>
-    <row r="833" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -21509,7 +21520,7 @@
       <c r="S833" s="1"/>
       <c r="T833" s="1"/>
     </row>
-    <row r="834" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -21531,7 +21542,7 @@
       <c r="S834" s="1"/>
       <c r="T834" s="1"/>
     </row>
-    <row r="835" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -21553,7 +21564,7 @@
       <c r="S835" s="1"/>
       <c r="T835" s="1"/>
     </row>
-    <row r="836" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -21575,7 +21586,7 @@
       <c r="S836" s="1"/>
       <c r="T836" s="1"/>
     </row>
-    <row r="837" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -21597,7 +21608,7 @@
       <c r="S837" s="1"/>
       <c r="T837" s="1"/>
     </row>
-    <row r="838" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -21619,7 +21630,7 @@
       <c r="S838" s="1"/>
       <c r="T838" s="1"/>
     </row>
-    <row r="839" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -21641,7 +21652,7 @@
       <c r="S839" s="1"/>
       <c r="T839" s="1"/>
     </row>
-    <row r="840" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -21663,7 +21674,7 @@
       <c r="S840" s="1"/>
       <c r="T840" s="1"/>
     </row>
-    <row r="841" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -21685,7 +21696,7 @@
       <c r="S841" s="1"/>
       <c r="T841" s="1"/>
     </row>
-    <row r="842" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -21707,7 +21718,7 @@
       <c r="S842" s="1"/>
       <c r="T842" s="1"/>
     </row>
-    <row r="843" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -21729,7 +21740,7 @@
       <c r="S843" s="1"/>
       <c r="T843" s="1"/>
     </row>
-    <row r="844" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -21751,7 +21762,7 @@
       <c r="S844" s="1"/>
       <c r="T844" s="1"/>
     </row>
-    <row r="845" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -21773,7 +21784,7 @@
       <c r="S845" s="1"/>
       <c r="T845" s="1"/>
     </row>
-    <row r="846" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -21795,7 +21806,7 @@
       <c r="S846" s="1"/>
       <c r="T846" s="1"/>
     </row>
-    <row r="847" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -21817,7 +21828,7 @@
       <c r="S847" s="1"/>
       <c r="T847" s="1"/>
     </row>
-    <row r="848" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -21839,7 +21850,7 @@
       <c r="S848" s="1"/>
       <c r="T848" s="1"/>
     </row>
-    <row r="849" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -21861,7 +21872,7 @@
       <c r="S849" s="1"/>
       <c r="T849" s="1"/>
     </row>
-    <row r="850" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -21883,7 +21894,7 @@
       <c r="S850" s="1"/>
       <c r="T850" s="1"/>
     </row>
-    <row r="851" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -21905,7 +21916,7 @@
       <c r="S851" s="1"/>
       <c r="T851" s="1"/>
     </row>
-    <row r="852" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -21927,7 +21938,7 @@
       <c r="S852" s="1"/>
       <c r="T852" s="1"/>
     </row>
-    <row r="853" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -21949,7 +21960,7 @@
       <c r="S853" s="1"/>
       <c r="T853" s="1"/>
     </row>
-    <row r="854" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -21971,7 +21982,7 @@
       <c r="S854" s="1"/>
       <c r="T854" s="1"/>
     </row>
-    <row r="855" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -21993,7 +22004,7 @@
       <c r="S855" s="1"/>
       <c r="T855" s="1"/>
     </row>
-    <row r="856" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -22015,7 +22026,7 @@
       <c r="S856" s="1"/>
       <c r="T856" s="1"/>
     </row>
-    <row r="857" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -22037,7 +22048,7 @@
       <c r="S857" s="1"/>
       <c r="T857" s="1"/>
     </row>
-    <row r="858" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -22059,7 +22070,7 @@
       <c r="S858" s="1"/>
       <c r="T858" s="1"/>
     </row>
-    <row r="859" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -22081,7 +22092,7 @@
       <c r="S859" s="1"/>
       <c r="T859" s="1"/>
     </row>
-    <row r="860" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -22103,7 +22114,7 @@
       <c r="S860" s="1"/>
       <c r="T860" s="1"/>
     </row>
-    <row r="861" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -22125,7 +22136,7 @@
       <c r="S861" s="1"/>
       <c r="T861" s="1"/>
     </row>
-    <row r="862" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -22147,7 +22158,7 @@
       <c r="S862" s="1"/>
       <c r="T862" s="1"/>
     </row>
-    <row r="863" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -22169,7 +22180,7 @@
       <c r="S863" s="1"/>
       <c r="T863" s="1"/>
     </row>
-    <row r="864" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -22191,7 +22202,7 @@
       <c r="S864" s="1"/>
       <c r="T864" s="1"/>
     </row>
-    <row r="865" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -22213,7 +22224,7 @@
       <c r="S865" s="1"/>
       <c r="T865" s="1"/>
     </row>
-    <row r="866" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -22235,7 +22246,7 @@
       <c r="S866" s="1"/>
       <c r="T866" s="1"/>
     </row>
-    <row r="867" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -22257,7 +22268,7 @@
       <c r="S867" s="1"/>
       <c r="T867" s="1"/>
     </row>
-    <row r="868" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -22279,7 +22290,7 @@
       <c r="S868" s="1"/>
       <c r="T868" s="1"/>
     </row>
-    <row r="869" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -22301,7 +22312,7 @@
       <c r="S869" s="1"/>
       <c r="T869" s="1"/>
     </row>
-    <row r="870" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -22323,7 +22334,7 @@
       <c r="S870" s="1"/>
       <c r="T870" s="1"/>
     </row>
-    <row r="871" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -22345,7 +22356,7 @@
       <c r="S871" s="1"/>
       <c r="T871" s="1"/>
     </row>
-    <row r="872" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -22367,7 +22378,7 @@
       <c r="S872" s="1"/>
       <c r="T872" s="1"/>
     </row>
-    <row r="873" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -22389,7 +22400,7 @@
       <c r="S873" s="1"/>
       <c r="T873" s="1"/>
     </row>
-    <row r="874" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -22411,7 +22422,7 @@
       <c r="S874" s="1"/>
       <c r="T874" s="1"/>
     </row>
-    <row r="875" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -22433,7 +22444,7 @@
       <c r="S875" s="1"/>
       <c r="T875" s="1"/>
     </row>
-    <row r="876" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -22455,7 +22466,7 @@
       <c r="S876" s="1"/>
       <c r="T876" s="1"/>
     </row>
-    <row r="877" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -22477,7 +22488,7 @@
       <c r="S877" s="1"/>
       <c r="T877" s="1"/>
     </row>
-    <row r="878" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -22499,7 +22510,7 @@
       <c r="S878" s="1"/>
       <c r="T878" s="1"/>
     </row>
-    <row r="879" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -22521,7 +22532,7 @@
       <c r="S879" s="1"/>
       <c r="T879" s="1"/>
     </row>
-    <row r="880" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -22543,7 +22554,7 @@
       <c r="S880" s="1"/>
       <c r="T880" s="1"/>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -22565,7 +22576,7 @@
       <c r="S881" s="1"/>
       <c r="T881" s="1"/>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -22587,7 +22598,7 @@
       <c r="S882" s="1"/>
       <c r="T882" s="1"/>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -22609,7 +22620,7 @@
       <c r="S883" s="1"/>
       <c r="T883" s="1"/>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -22631,7 +22642,7 @@
       <c r="S884" s="1"/>
       <c r="T884" s="1"/>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -22653,7 +22664,7 @@
       <c r="S885" s="1"/>
       <c r="T885" s="1"/>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -22675,7 +22686,7 @@
       <c r="S886" s="1"/>
       <c r="T886" s="1"/>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -22697,7 +22708,7 @@
       <c r="S887" s="1"/>
       <c r="T887" s="1"/>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -22719,7 +22730,7 @@
       <c r="S888" s="1"/>
       <c r="T888" s="1"/>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -22741,7 +22752,7 @@
       <c r="S889" s="1"/>
       <c r="T889" s="1"/>
     </row>
-    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -22763,7 +22774,7 @@
       <c r="S890" s="1"/>
       <c r="T890" s="1"/>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -22785,7 +22796,7 @@
       <c r="S891" s="1"/>
       <c r="T891" s="1"/>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -22807,7 +22818,7 @@
       <c r="S892" s="1"/>
       <c r="T892" s="1"/>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -22829,7 +22840,7 @@
       <c r="S893" s="1"/>
       <c r="T893" s="1"/>
     </row>
-    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -22851,7 +22862,7 @@
       <c r="S894" s="1"/>
       <c r="T894" s="1"/>
     </row>
-    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -22873,7 +22884,7 @@
       <c r="S895" s="1"/>
       <c r="T895" s="1"/>
     </row>
-    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -22895,7 +22906,7 @@
       <c r="S896" s="1"/>
       <c r="T896" s="1"/>
     </row>
-    <row r="897" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -22917,7 +22928,7 @@
       <c r="S897" s="1"/>
       <c r="T897" s="1"/>
     </row>
-    <row r="898" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -22939,7 +22950,7 @@
       <c r="S898" s="1"/>
       <c r="T898" s="1"/>
     </row>
-    <row r="899" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -22961,7 +22972,7 @@
       <c r="S899" s="1"/>
       <c r="T899" s="1"/>
     </row>
-    <row r="900" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -22983,7 +22994,7 @@
       <c r="S900" s="1"/>
       <c r="T900" s="1"/>
     </row>
-    <row r="901" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -23005,7 +23016,7 @@
       <c r="S901" s="1"/>
       <c r="T901" s="1"/>
     </row>
-    <row r="902" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -23027,7 +23038,7 @@
       <c r="S902" s="1"/>
       <c r="T902" s="1"/>
     </row>
-    <row r="903" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -23049,7 +23060,7 @@
       <c r="S903" s="1"/>
       <c r="T903" s="1"/>
     </row>
-    <row r="904" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -23071,7 +23082,7 @@
       <c r="S904" s="1"/>
       <c r="T904" s="1"/>
     </row>
-    <row r="905" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -23093,7 +23104,7 @@
       <c r="S905" s="1"/>
       <c r="T905" s="1"/>
     </row>
-    <row r="906" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -23115,7 +23126,7 @@
       <c r="S906" s="1"/>
       <c r="T906" s="1"/>
     </row>
-    <row r="907" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -23137,7 +23148,7 @@
       <c r="S907" s="1"/>
       <c r="T907" s="1"/>
     </row>
-    <row r="908" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -23159,7 +23170,7 @@
       <c r="S908" s="1"/>
       <c r="T908" s="1"/>
     </row>
-    <row r="909" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -23181,7 +23192,7 @@
       <c r="S909" s="1"/>
       <c r="T909" s="1"/>
     </row>
-    <row r="910" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -23203,7 +23214,7 @@
       <c r="S910" s="1"/>
       <c r="T910" s="1"/>
     </row>
-    <row r="911" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -23225,7 +23236,7 @@
       <c r="S911" s="1"/>
       <c r="T911" s="1"/>
     </row>
-    <row r="912" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -23247,7 +23258,7 @@
       <c r="S912" s="1"/>
       <c r="T912" s="1"/>
     </row>
-    <row r="913" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -23269,7 +23280,7 @@
       <c r="S913" s="1"/>
       <c r="T913" s="1"/>
     </row>
-    <row r="914" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -23291,7 +23302,7 @@
       <c r="S914" s="1"/>
       <c r="T914" s="1"/>
     </row>
-    <row r="915" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -23313,7 +23324,7 @@
       <c r="S915" s="1"/>
       <c r="T915" s="1"/>
     </row>
-    <row r="916" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -23335,7 +23346,7 @@
       <c r="S916" s="1"/>
       <c r="T916" s="1"/>
     </row>
-    <row r="917" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -23357,7 +23368,7 @@
       <c r="S917" s="1"/>
       <c r="T917" s="1"/>
     </row>
-    <row r="918" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -23379,7 +23390,7 @@
       <c r="S918" s="1"/>
       <c r="T918" s="1"/>
     </row>
-    <row r="919" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -23401,7 +23412,7 @@
       <c r="S919" s="1"/>
       <c r="T919" s="1"/>
     </row>
-    <row r="920" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -23423,7 +23434,7 @@
       <c r="S920" s="1"/>
       <c r="T920" s="1"/>
     </row>
-    <row r="921" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -23445,7 +23456,7 @@
       <c r="S921" s="1"/>
       <c r="T921" s="1"/>
     </row>
-    <row r="922" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -23467,7 +23478,7 @@
       <c r="S922" s="1"/>
       <c r="T922" s="1"/>
     </row>
-    <row r="923" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -23489,7 +23500,7 @@
       <c r="S923" s="1"/>
       <c r="T923" s="1"/>
     </row>
-    <row r="924" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -23511,7 +23522,7 @@
       <c r="S924" s="1"/>
       <c r="T924" s="1"/>
     </row>
-    <row r="925" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -23533,7 +23544,7 @@
       <c r="S925" s="1"/>
       <c r="T925" s="1"/>
     </row>
-    <row r="926" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -23555,7 +23566,7 @@
       <c r="S926" s="1"/>
       <c r="T926" s="1"/>
     </row>
-    <row r="927" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -23577,7 +23588,7 @@
       <c r="S927" s="1"/>
       <c r="T927" s="1"/>
     </row>
-    <row r="928" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -23599,7 +23610,7 @@
       <c r="S928" s="1"/>
       <c r="T928" s="1"/>
     </row>
-    <row r="929" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -23621,7 +23632,7 @@
       <c r="S929" s="1"/>
       <c r="T929" s="1"/>
     </row>
-    <row r="930" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -23643,7 +23654,7 @@
       <c r="S930" s="1"/>
       <c r="T930" s="1"/>
     </row>
-    <row r="931" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -23665,7 +23676,7 @@
       <c r="S931" s="1"/>
       <c r="T931" s="1"/>
     </row>
-    <row r="932" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -23687,7 +23698,7 @@
       <c r="S932" s="1"/>
       <c r="T932" s="1"/>
     </row>
-    <row r="933" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -23709,7 +23720,7 @@
       <c r="S933" s="1"/>
       <c r="T933" s="1"/>
     </row>
-    <row r="934" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -23731,7 +23742,7 @@
       <c r="S934" s="1"/>
       <c r="T934" s="1"/>
     </row>
-    <row r="935" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -23753,7 +23764,7 @@
       <c r="S935" s="1"/>
       <c r="T935" s="1"/>
     </row>
-    <row r="936" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -23775,7 +23786,7 @@
       <c r="S936" s="1"/>
       <c r="T936" s="1"/>
     </row>
-    <row r="937" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -23797,7 +23808,7 @@
       <c r="S937" s="1"/>
       <c r="T937" s="1"/>
     </row>
-    <row r="938" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -23819,7 +23830,7 @@
       <c r="S938" s="1"/>
       <c r="T938" s="1"/>
     </row>
-    <row r="939" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -23841,7 +23852,7 @@
       <c r="S939" s="1"/>
       <c r="T939" s="1"/>
     </row>
-    <row r="940" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -23863,7 +23874,7 @@
       <c r="S940" s="1"/>
       <c r="T940" s="1"/>
     </row>
-    <row r="941" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -23885,7 +23896,7 @@
       <c r="S941" s="1"/>
       <c r="T941" s="1"/>
     </row>
-    <row r="942" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -23907,7 +23918,7 @@
       <c r="S942" s="1"/>
       <c r="T942" s="1"/>
     </row>
-    <row r="943" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -23929,7 +23940,7 @@
       <c r="S943" s="1"/>
       <c r="T943" s="1"/>
     </row>
-    <row r="944" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -23951,7 +23962,7 @@
       <c r="S944" s="1"/>
       <c r="T944" s="1"/>
     </row>
-    <row r="945" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -23973,7 +23984,7 @@
       <c r="S945" s="1"/>
       <c r="T945" s="1"/>
     </row>
-    <row r="946" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -23995,7 +24006,7 @@
       <c r="S946" s="1"/>
       <c r="T946" s="1"/>
     </row>
-    <row r="947" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -24017,7 +24028,7 @@
       <c r="S947" s="1"/>
       <c r="T947" s="1"/>
     </row>
-    <row r="948" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -24039,7 +24050,7 @@
       <c r="S948" s="1"/>
       <c r="T948" s="1"/>
     </row>
-    <row r="949" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -24061,7 +24072,7 @@
       <c r="S949" s="1"/>
       <c r="T949" s="1"/>
     </row>
-    <row r="950" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -24083,7 +24094,7 @@
       <c r="S950" s="1"/>
       <c r="T950" s="1"/>
     </row>
-    <row r="951" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -24105,7 +24116,7 @@
       <c r="S951" s="1"/>
       <c r="T951" s="1"/>
     </row>
-    <row r="952" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -24127,7 +24138,7 @@
       <c r="S952" s="1"/>
       <c r="T952" s="1"/>
     </row>
-    <row r="953" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -24149,7 +24160,7 @@
       <c r="S953" s="1"/>
       <c r="T953" s="1"/>
     </row>
-    <row r="954" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -24171,7 +24182,7 @@
       <c r="S954" s="1"/>
       <c r="T954" s="1"/>
     </row>
-    <row r="955" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -24193,7 +24204,7 @@
       <c r="S955" s="1"/>
       <c r="T955" s="1"/>
     </row>
-    <row r="956" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -24215,7 +24226,7 @@
       <c r="S956" s="1"/>
       <c r="T956" s="1"/>
     </row>
-    <row r="957" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -24237,7 +24248,7 @@
       <c r="S957" s="1"/>
       <c r="T957" s="1"/>
     </row>
-    <row r="958" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -24259,7 +24270,7 @@
       <c r="S958" s="1"/>
       <c r="T958" s="1"/>
     </row>
-    <row r="959" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -24281,7 +24292,7 @@
       <c r="S959" s="1"/>
       <c r="T959" s="1"/>
     </row>
-    <row r="960" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -24303,7 +24314,7 @@
       <c r="S960" s="1"/>
       <c r="T960" s="1"/>
     </row>
-    <row r="961" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -24325,7 +24336,7 @@
       <c r="S961" s="1"/>
       <c r="T961" s="1"/>
     </row>
-    <row r="962" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -24347,7 +24358,7 @@
       <c r="S962" s="1"/>
       <c r="T962" s="1"/>
     </row>
-    <row r="963" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -24369,7 +24380,7 @@
       <c r="S963" s="1"/>
       <c r="T963" s="1"/>
     </row>
-    <row r="964" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -24391,7 +24402,7 @@
       <c r="S964" s="1"/>
       <c r="T964" s="1"/>
     </row>
-    <row r="965" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -24413,7 +24424,7 @@
       <c r="S965" s="1"/>
       <c r="T965" s="1"/>
     </row>
-    <row r="966" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -24435,7 +24446,7 @@
       <c r="S966" s="1"/>
       <c r="T966" s="1"/>
     </row>
-    <row r="967" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -24457,7 +24468,7 @@
       <c r="S967" s="1"/>
       <c r="T967" s="1"/>
     </row>
-    <row r="968" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -24479,7 +24490,7 @@
       <c r="S968" s="1"/>
       <c r="T968" s="1"/>
     </row>
-    <row r="969" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -24501,7 +24512,7 @@
       <c r="S969" s="1"/>
       <c r="T969" s="1"/>
     </row>
-    <row r="970" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -24523,7 +24534,7 @@
       <c r="S970" s="1"/>
       <c r="T970" s="1"/>
     </row>
-    <row r="971" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -24545,7 +24556,7 @@
       <c r="S971" s="1"/>
       <c r="T971" s="1"/>
     </row>
-    <row r="972" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -24567,7 +24578,7 @@
       <c r="S972" s="1"/>
       <c r="T972" s="1"/>
     </row>
-    <row r="973" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -24589,7 +24600,7 @@
       <c r="S973" s="1"/>
       <c r="T973" s="1"/>
     </row>
-    <row r="974" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -24611,7 +24622,7 @@
       <c r="S974" s="1"/>
       <c r="T974" s="1"/>
     </row>
-    <row r="975" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -24633,7 +24644,7 @@
       <c r="S975" s="1"/>
       <c r="T975" s="1"/>
     </row>
-    <row r="976" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -24655,7 +24666,7 @@
       <c r="S976" s="1"/>
       <c r="T976" s="1"/>
     </row>
-    <row r="977" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -24677,7 +24688,7 @@
       <c r="S977" s="1"/>
       <c r="T977" s="1"/>
     </row>
-    <row r="978" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -24699,7 +24710,7 @@
       <c r="S978" s="1"/>
       <c r="T978" s="1"/>
     </row>
-    <row r="979" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -24721,7 +24732,7 @@
       <c r="S979" s="1"/>
       <c r="T979" s="1"/>
     </row>
-    <row r="980" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -24743,7 +24754,7 @@
       <c r="S980" s="1"/>
       <c r="T980" s="1"/>
     </row>
-    <row r="981" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -24765,7 +24776,7 @@
       <c r="S981" s="1"/>
       <c r="T981" s="1"/>
     </row>
-    <row r="982" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -24787,7 +24798,7 @@
       <c r="S982" s="1"/>
       <c r="T982" s="1"/>
     </row>
-    <row r="983" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -24809,7 +24820,7 @@
       <c r="S983" s="1"/>
       <c r="T983" s="1"/>
     </row>
-    <row r="984" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -24831,7 +24842,7 @@
       <c r="S984" s="1"/>
       <c r="T984" s="1"/>
     </row>
-    <row r="985" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -24853,7 +24864,7 @@
       <c r="S985" s="1"/>
       <c r="T985" s="1"/>
     </row>
-    <row r="986" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -24875,7 +24886,7 @@
       <c r="S986" s="1"/>
       <c r="T986" s="1"/>
     </row>
-    <row r="987" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -24897,7 +24908,7 @@
       <c r="S987" s="1"/>
       <c r="T987" s="1"/>
     </row>
-    <row r="988" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -24919,7 +24930,7 @@
       <c r="S988" s="1"/>
       <c r="T988" s="1"/>
     </row>
-    <row r="989" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -24941,7 +24952,7 @@
       <c r="S989" s="1"/>
       <c r="T989" s="1"/>
     </row>
-    <row r="990" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -24963,7 +24974,7 @@
       <c r="S990" s="1"/>
       <c r="T990" s="1"/>
     </row>
-    <row r="991" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -24985,7 +24996,7 @@
       <c r="S991" s="1"/>
       <c r="T991" s="1"/>
     </row>
-    <row r="992" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -25007,7 +25018,7 @@
       <c r="S992" s="1"/>
       <c r="T992" s="1"/>
     </row>
-    <row r="993" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -25029,7 +25040,7 @@
       <c r="S993" s="1"/>
       <c r="T993" s="1"/>
     </row>
-    <row r="994" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -25051,7 +25062,7 @@
       <c r="S994" s="1"/>
       <c r="T994" s="1"/>
     </row>
-    <row r="995" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -25073,7 +25084,7 @@
       <c r="S995" s="1"/>
       <c r="T995" s="1"/>
     </row>
-    <row r="996" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -25095,7 +25106,7 @@
       <c r="S996" s="1"/>
       <c r="T996" s="1"/>
     </row>
-    <row r="997" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -25117,7 +25128,7 @@
       <c r="S997" s="1"/>
       <c r="T997" s="1"/>
     </row>
-    <row r="998" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -25139,7 +25150,7 @@
       <c r="S998" s="1"/>
       <c r="T998" s="1"/>
     </row>
-    <row r="999" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -25187,8 +25198,10 @@
     <hyperlink ref="G22" r:id="rId22" xr:uid="{8DCD289B-1B3E-48D2-9485-DC78F70448CB}"/>
     <hyperlink ref="G23" r:id="rId23" xr:uid="{091B8B7C-378C-47FE-BAA3-3AEB1B29FC91}"/>
     <hyperlink ref="G24:G156" r:id="rId24" display="https://i.postimg.cc/7hByXGhN/motaataltadabor.jpg" xr:uid="{8ADA5B2D-C84B-4C14-BB36-493FD832AEB3}"/>
+    <hyperlink ref="G24" r:id="rId25" xr:uid="{29743BBA-79A7-4BE4-9921-9C2A119B99E5}"/>
+    <hyperlink ref="G25" r:id="rId26" xr:uid="{4F89619C-2DB3-457A-B2DF-F6E3304460DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId25"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>